--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -2984,7 +2984,7 @@
         <v>101</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>92</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -284,7 +284,7 @@
     <t>estremiDocumento</t>
   </si>
   <si>
-    <t>Dati della trascrizione</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Tipo richiesta</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="112">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,4}</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -230,18 +239,30 @@
     <t>evento.madre</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,2}</t>
+  </si>
+  <si>
     <t>Padre</t>
   </si>
   <si>
     <t>evento.padre</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,=,1}</t>
+  </si>
+  <si>
     <t>Figlio</t>
   </si>
   <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRichiedente,=,3}</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,3}</t>
+  </si>
+  <si>
     <t>Atto da trascrivere</t>
   </si>
   <si>
@@ -324,6 +345,9 @@
   </si>
   <si>
     <t>Flag - Richiedente Padre - Trascrizioni nascita</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,1}</t>
   </si>
 </sst>
 </file>
@@ -382,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -394,6 +418,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.6484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="47.90234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -415,65 +440,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -495,2565 +532,2952 @@
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="113">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,31 +32,34 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Sentenza straniera</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Richiesta di trascrizione</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192-bis</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Sentenza straniera</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Richiesta di trascrizione</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192-bis</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -533,2951 +536,2951 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -107,7 +107,7 @@
     <t>cognome</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,4}</t>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,4</t>
   </si>
   <si>
     <t>Nome</t>
@@ -242,7 +242,7 @@
     <t>evento.madre</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,2}</t>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,2</t>
   </si>
   <si>
     <t>Padre</t>
@@ -251,7 +251,7 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,=,1}</t>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,1</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -260,10 +260,10 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRichiedente,=,3}</t>
-  </si>
-  <si>
-    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,3}</t>
+    <t>evento.trascrizioneNascita.tipoRichiedente,=,3</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,3</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -350,7 +350,7 @@
     <t>Flag - Richiedente Padre - Trascrizioni nascita</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,1}</t>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,1</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.6484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="47.90234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="46.51953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3307,7 +3307,7 @@
         <v>99</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>100</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="111">
   <si>
     <t>Sezione</t>
   </si>
@@ -345,12 +345,6 @@
   </si>
   <si>
     <t>descrizioneTipoRichiedente</t>
-  </si>
-  <si>
-    <t>Flag - Richiedente Padre - Trascrizioni nascita</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRichiedente,!=,1</t>
   </si>
 </sst>
 </file>
@@ -409,13 +403,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
@@ -662,7 +656,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -671,7 +665,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>31</v>
@@ -685,7 +679,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
@@ -694,7 +688,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>31</v>
@@ -708,7 +702,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -717,7 +711,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>31</v>
@@ -731,7 +725,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -754,7 +748,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -763,7 +757,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>31</v>
@@ -869,7 +863,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
@@ -892,7 +886,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
@@ -901,7 +895,7 @@
         <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>31</v>
@@ -915,7 +909,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
@@ -938,7 +932,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>29</v>
@@ -947,7 +941,7 @@
         <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>31</v>
@@ -1145,7 +1139,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>75</v>
@@ -1154,7 +1148,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>76</v>
@@ -1191,7 +1185,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>75</v>
@@ -1200,7 +1194,7 @@
         <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>76</v>
@@ -1375,7 +1369,7 @@
         <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>75</v>
@@ -1398,7 +1392,7 @@
         <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>75</v>
@@ -1407,7 +1401,7 @@
         <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>76</v>
@@ -1421,7 +1415,7 @@
         <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>75</v>
@@ -1444,7 +1438,7 @@
         <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>75</v>
@@ -1453,7 +1447,7 @@
         <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>76</v>
@@ -2663,7 +2657,7 @@
         <v>28</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>81</v>
@@ -2672,7 +2666,7 @@
         <v>30</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>83</v>
@@ -2709,7 +2703,7 @@
         <v>34</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>81</v>
@@ -2718,7 +2712,7 @@
         <v>35</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>83</v>
@@ -2893,7 +2887,7 @@
         <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>81</v>
@@ -2916,7 +2910,7 @@
         <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>81</v>
@@ -2925,7 +2919,7 @@
         <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>83</v>
@@ -2939,7 +2933,7 @@
         <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>81</v>
@@ -2962,7 +2956,7 @@
         <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>81</v>
@@ -2971,7 +2965,7 @@
         <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>83</v>
@@ -3123,7 +3117,7 @@
         <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>81</v>
@@ -3132,7 +3126,7 @@
         <v>71</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>83</v>
@@ -3146,7 +3140,7 @@
         <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>81</v>
@@ -3155,7 +3149,7 @@
         <v>73</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>83</v>
@@ -3412,75 +3406,6 @@
       </c>
       <c r="G130" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="108">
   <si>
     <t>Sezione</t>
   </si>
@@ -251,19 +251,10 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,1</t>
-  </si>
-  <si>
     <t>Figlio</t>
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRichiedente,=,3</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRichiedente,!=,3</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -403,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -415,7 +406,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.6484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="46.51953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="43.5546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -633,7 +624,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -642,7 +633,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>31</v>
@@ -863,7 +854,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
@@ -886,7 +877,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
@@ -909,7 +900,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
@@ -932,7 +923,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>29</v>
@@ -987,7 +978,7 @@
         <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>31</v>
@@ -1033,7 +1024,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>31</v>
@@ -1056,7 +1047,7 @@
         <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>31</v>
@@ -1185,7 +1176,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>75</v>
@@ -1194,7 +1185,7 @@
         <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>76</v>
@@ -1401,7 +1392,7 @@
         <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>76</v>
@@ -1447,7 +1438,7 @@
         <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>76</v>
@@ -1493,7 +1484,7 @@
         <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>76</v>
@@ -1539,7 +1530,7 @@
         <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>76</v>
@@ -1562,7 +1553,7 @@
         <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>76</v>
@@ -1645,7 +1636,7 @@
         <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>78</v>
@@ -1654,10 +1645,10 @@
         <v>30</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -1680,7 +1671,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -1703,7 +1694,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
@@ -1726,7 +1717,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -1749,7 +1740,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -1772,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -1795,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -1818,7 +1809,7 @@
         <v>14</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -1841,7 +1832,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -1864,7 +1855,7 @@
         <v>14</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -1875,7 +1866,7 @@
         <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>78</v>
@@ -1887,7 +1878,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -1898,7 +1889,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>78</v>
@@ -1910,7 +1901,7 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
@@ -1921,7 +1912,7 @@
         <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>78</v>
@@ -1933,7 +1924,7 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -1944,7 +1935,7 @@
         <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>78</v>
@@ -1956,7 +1947,7 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -1979,7 +1970,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -1999,10 +1990,10 @@
         <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -2025,7 +2016,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -2045,10 +2036,10 @@
         <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
@@ -2068,10 +2059,10 @@
         <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -2094,7 +2085,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -2117,7 +2108,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -2140,35 +2131,35 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>32</v>
@@ -2177,7 +2168,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>33</v>
@@ -2186,12 +2177,12 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>34</v>
@@ -2200,7 +2191,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>35</v>
@@ -2209,12 +2200,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>36</v>
@@ -2223,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>37</v>
@@ -2232,12 +2223,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>38</v>
@@ -2246,7 +2237,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>39</v>
@@ -2255,12 +2246,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>40</v>
@@ -2269,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>41</v>
@@ -2278,12 +2269,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>42</v>
@@ -2292,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>43</v>
@@ -2301,12 +2292,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>44</v>
@@ -2315,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>45</v>
@@ -2324,12 +2315,12 @@
         <v>14</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>46</v>
@@ -2338,7 +2329,7 @@
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>47</v>
@@ -2347,12 +2338,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>48</v>
@@ -2361,7 +2352,7 @@
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>49</v>
@@ -2370,21 +2361,21 @@
         <v>14</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>51</v>
@@ -2393,21 +2384,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>53</v>
@@ -2416,21 +2407,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>55</v>
@@ -2439,21 +2430,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>57</v>
@@ -2462,12 +2453,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>58</v>
@@ -2476,7 +2467,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>59</v>
@@ -2485,12 +2476,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>60</v>
@@ -2499,21 +2490,21 @@
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>62</v>
@@ -2522,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>63</v>
@@ -2531,12 +2522,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>64</v>
@@ -2545,21 +2536,21 @@
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>66</v>
@@ -2568,21 +2559,21 @@
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>68</v>
@@ -2591,7 +2582,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>69</v>
@@ -2600,21 +2591,21 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>71</v>
@@ -2623,21 +2614,21 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>73</v>
@@ -2646,765 +2637,259 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -56,7 +56,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>192-bis</t>
+    <t>192.10</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -56,7 +56,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>192.10</t>
+    <t>192-bis</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -2625,7 +2625,7 @@
         <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>80</v>
@@ -2763,7 +2763,7 @@
         <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>83</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="111">
   <si>
     <t>Sezione</t>
   </si>
@@ -164,6 +164,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -279,6 +285,9 @@
   </si>
   <si>
     <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -394,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -863,7 +872,7 @@
         <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>31</v>
@@ -1061,7 +1070,7 @@
         <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>29</v>
@@ -1124,571 +1133,571 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1708,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1731,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1754,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1777,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1791,22 +1800,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>20</v>
@@ -1814,19 +1823,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1846,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
@@ -1860,19 +1869,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1883,22 +1892,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>20</v>
@@ -1906,22 +1915,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>20</v>
@@ -1929,19 +1938,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1961,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1984,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2007,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2030,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2053,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2076,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2099,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2122,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2139,7 +2148,7 @@
         <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2148,7 +2157,7 @@
         <v>80</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2162,7 +2171,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2171,7 +2180,7 @@
         <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2185,7 +2194,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2194,7 +2203,7 @@
         <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2214,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2237,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2260,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2283,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2297,22 +2306,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>20</v>
@@ -2320,19 +2329,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2343,22 +2352,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>20</v>
@@ -2366,22 +2375,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>20</v>
@@ -2389,19 +2398,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2412,22 +2421,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>20</v>
@@ -2435,22 +2444,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>20</v>
@@ -2458,19 +2467,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2490,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2513,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2536,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2559,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2582,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2605,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2628,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2645,16 +2654,16 @@
         <v>81</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2668,16 +2677,16 @@
         <v>81</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2691,16 +2700,16 @@
         <v>81</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2714,16 +2723,16 @@
         <v>81</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2743,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2766,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2780,19 +2789,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2812,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2826,19 +2835,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2849,19 +2858,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2872,24 +2881,139 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E108" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -236,7 +236,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -236,7 +236,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>Firmatario</t>
+    <t>flag firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -249,6 +249,30 @@
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,!=,2</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Padre</t>
@@ -403,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1685,111 +1709,111 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1824,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1847,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1846,22 +1870,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>20</v>
@@ -1869,19 +1893,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1892,22 +1916,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>20</v>
@@ -1915,22 +1939,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>20</v>
@@ -1938,22 +1962,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>20</v>
@@ -1961,19 +1985,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1984,22 +2008,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>20</v>
@@ -2007,22 +2031,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>20</v>
@@ -2030,19 +2054,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2077,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2100,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2123,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2146,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2169,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2192,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2215,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2238,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2261,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2284,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2307,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2330,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2353,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2376,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2375,22 +2399,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>20</v>
@@ -2398,19 +2422,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2421,22 +2445,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>20</v>
@@ -2444,22 +2468,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>20</v>
@@ -2467,19 +2491,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2514,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2537,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2560,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2559,22 +2583,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>20</v>
@@ -2582,19 +2606,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2605,22 +2629,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>20</v>
@@ -2628,22 +2652,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>20</v>
@@ -2651,19 +2675,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2698,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2721,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2744,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2767,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2790,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2813,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2836,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2859,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2882,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2881,19 +2905,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2904,19 +2928,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2927,19 +2951,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -2950,19 +2974,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2997,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -2996,24 +3020,300 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B121" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E113" s="2" t="s">
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="121">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>192-bis</t>
+    <t>192.10</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -116,6 +116,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -170,13 +176,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -427,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -703,7 +709,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
@@ -795,7 +801,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
@@ -827,7 +833,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>31</v>
@@ -850,7 +856,7 @@
         <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>31</v>
@@ -873,7 +879,7 @@
         <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>31</v>
@@ -919,7 +925,7 @@
         <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>31</v>
@@ -1117,7 +1123,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>29</v>
@@ -1180,686 +1186,686 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1876,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1893,19 +1899,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1962,22 +1968,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>20</v>
@@ -1985,19 +1991,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2008,22 +2014,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>20</v>
@@ -2031,19 +2037,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>14</v>
@@ -2054,19 +2060,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2077,22 +2083,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>20</v>
@@ -2100,22 +2106,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>20</v>
@@ -2123,19 +2129,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2146,19 +2152,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2169,19 +2175,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2192,19 +2198,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2215,19 +2221,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2267,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2284,19 +2290,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2307,19 +2313,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2336,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2359,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2376,19 +2382,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2405,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2425,16 +2431,16 @@
         <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2448,16 +2454,16 @@
         <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2471,16 +2477,16 @@
         <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2491,19 +2497,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2514,19 +2520,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2537,19 +2543,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2566,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2583,22 +2589,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>20</v>
@@ -2606,19 +2612,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2629,22 +2635,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>20</v>
@@ -2652,22 +2658,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>20</v>
@@ -2675,22 +2681,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>20</v>
@@ -2698,19 +2704,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2721,22 +2727,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>20</v>
@@ -2744,22 +2750,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>20</v>
@@ -2767,19 +2773,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2790,19 +2796,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2813,19 +2819,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2836,19 +2842,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2859,19 +2865,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2882,19 +2888,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2905,19 +2911,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2928,19 +2934,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2951,19 +2957,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -2974,19 +2980,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -2997,19 +3003,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3020,19 +3026,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3046,16 +3052,16 @@
         <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3069,16 +3075,16 @@
         <v>91</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3092,16 +3098,16 @@
         <v>91</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3115,16 +3121,16 @@
         <v>91</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3135,19 +3141,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3158,19 +3164,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3181,19 +3187,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3204,19 +3210,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3227,19 +3233,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3250,19 +3256,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3273,19 +3279,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3296,24 +3302,116 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -433,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1146,7 +1152,7 @@
         <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>29</v>
@@ -1209,709 +1215,709 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1922,19 +1928,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1945,19 +1951,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1968,19 +1974,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1991,19 +1997,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2014,19 +2020,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2037,22 +2043,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>20</v>
@@ -2060,19 +2066,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2083,19 +2089,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>14</v>
@@ -2106,22 +2112,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>20</v>
@@ -2129,22 +2135,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>20</v>
@@ -2152,22 +2158,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>20</v>
@@ -2175,19 +2181,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2204,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2227,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2244,19 +2250,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2273,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2296,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2319,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2342,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2365,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2388,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2405,19 +2411,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2428,19 +2434,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2451,19 +2457,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2474,19 +2480,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2500,16 +2506,16 @@
         <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2523,16 +2529,16 @@
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2546,7 +2552,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -2555,7 +2561,7 @@
         <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2566,19 +2572,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2589,19 +2595,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2618,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2635,19 +2641,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2658,19 +2664,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2681,22 +2687,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>20</v>
@@ -2704,19 +2710,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2727,22 +2733,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>20</v>
@@ -2750,19 +2756,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>14</v>
@@ -2773,19 +2779,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2796,22 +2802,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>20</v>
@@ -2819,22 +2825,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>20</v>
@@ -2842,19 +2848,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2865,19 +2871,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2888,19 +2894,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2911,19 +2917,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2934,19 +2940,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2957,19 +2963,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -2980,19 +2986,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3003,19 +3009,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3032,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3055,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3072,19 +3078,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3095,19 +3101,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3118,19 +3124,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3144,16 +3150,16 @@
         <v>93</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3167,16 +3173,16 @@
         <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3190,16 +3196,16 @@
         <v>93</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3213,16 +3219,16 @@
         <v>93</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3233,19 +3239,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3256,19 +3262,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3279,19 +3285,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3302,19 +3308,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3325,19 +3331,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3348,19 +3354,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3371,19 +3377,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3394,24 +3400,116 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -439,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1175,7 +1181,7 @@
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>29</v>
@@ -1238,732 +1244,732 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1980,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2003,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2049,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2072,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2089,22 +2095,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>20</v>
@@ -2112,19 +2118,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2141,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
@@ -2158,22 +2164,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>20</v>
@@ -2181,22 +2187,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>20</v>
@@ -2204,22 +2210,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>20</v>
@@ -2227,19 +2233,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2279,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2302,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2325,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2342,19 +2348,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2365,19 +2371,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2394,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2417,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2440,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2457,19 +2463,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2486,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2509,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2555,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2575,16 +2581,16 @@
         <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2598,16 +2604,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2621,7 +2627,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -2630,7 +2636,7 @@
         <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2647,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2664,19 +2670,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2693,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2710,19 +2716,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2733,19 +2739,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2756,22 +2762,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>20</v>
@@ -2779,19 +2785,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2802,22 +2808,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>20</v>
@@ -2825,19 +2831,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>14</v>
@@ -2848,19 +2854,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2871,22 +2877,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>20</v>
@@ -2894,22 +2900,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>20</v>
@@ -2917,19 +2923,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2940,19 +2946,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2963,19 +2969,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -2986,19 +2992,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3009,19 +3015,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3032,19 +3038,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3055,19 +3061,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3078,19 +3084,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3101,19 +3107,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3124,19 +3130,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3147,19 +3153,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3170,19 +3176,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3193,19 +3199,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3216,19 +3222,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3242,16 +3248,16 @@
         <v>95</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3265,16 +3271,16 @@
         <v>95</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3288,16 +3294,16 @@
         <v>95</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3311,16 +3317,16 @@
         <v>95</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3331,19 +3337,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3354,19 +3360,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3377,19 +3383,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3400,19 +3406,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3423,19 +3429,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3446,19 +3452,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3469,19 +3475,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3492,24 +3498,116 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E133" s="2" t="s">
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -303,6 +303,81 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -445,17 +520,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.6484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="43.5546875" customWidth="true" bestFit="true"/>
   </cols>
@@ -3343,7 +3418,7 @@
         <v>98</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>99</v>
@@ -3355,7 +3430,7 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127">
@@ -3363,22 +3438,22 @@
         <v>97</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128">
@@ -3386,22 +3461,22 @@
         <v>97</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129">
@@ -3409,7 +3484,7 @@
         <v>97</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
@@ -3418,13 +3493,13 @@
         <v>99</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130">
@@ -3432,22 +3507,22 @@
         <v>97</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131">
@@ -3455,7 +3530,7 @@
         <v>97</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
@@ -3464,13 +3539,13 @@
         <v>99</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132">
@@ -3478,7 +3553,7 @@
         <v>97</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
@@ -3487,18 +3562,18 @@
         <v>99</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>113</v>
@@ -3507,107 +3582,383 @@
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
+      <c r="E138" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -520,14 +526,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -3412,53 +3418,53 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>104</v>
@@ -3467,7 +3473,7 @@
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>105</v>
@@ -3476,12 +3482,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>106</v>
@@ -3490,7 +3496,7 @@
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>107</v>
@@ -3499,12 +3505,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>108</v>
@@ -3513,7 +3519,7 @@
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>109</v>
@@ -3522,12 +3528,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>110</v>
@@ -3536,44 +3542,44 @@
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>113</v>
@@ -3582,44 +3588,44 @@
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>116</v>
@@ -3628,7 +3634,7 @@
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>117</v>
@@ -3637,12 +3643,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>118</v>
@@ -3651,7 +3657,7 @@
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>119</v>
@@ -3660,12 +3666,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>120</v>
@@ -3674,7 +3680,7 @@
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>121</v>
@@ -3683,44 +3689,44 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>127</v>
@@ -3734,7 +3740,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>128</v>
@@ -3743,7 +3749,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>129</v>
@@ -3757,19 +3763,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3780,16 +3786,16 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>132</v>
@@ -3803,16 +3809,16 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>134</v>
@@ -3826,7 +3832,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>135</v>
@@ -3835,7 +3841,7 @@
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>136</v>
@@ -3849,19 +3855,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3872,16 +3878,16 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>142</v>
@@ -3895,7 +3901,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>143</v>
@@ -3904,7 +3910,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>144</v>
@@ -3918,19 +3924,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3941,16 +3947,16 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>149</v>
@@ -3959,6 +3965,29 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -303,12 +303,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -526,14 +520,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -3418,53 +3412,53 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="E127" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>104</v>
@@ -3473,7 +3467,7 @@
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>105</v>
@@ -3482,12 +3476,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>106</v>
@@ -3496,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>107</v>
@@ -3505,12 +3499,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>108</v>
@@ -3519,7 +3513,7 @@
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>109</v>
@@ -3528,12 +3522,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>110</v>
@@ -3542,44 +3536,44 @@
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>113</v>
@@ -3588,44 +3582,44 @@
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>116</v>
@@ -3634,7 +3628,7 @@
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>117</v>
@@ -3643,12 +3637,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>118</v>
@@ -3657,7 +3651,7 @@
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>119</v>
@@ -3666,12 +3660,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>120</v>
@@ -3680,7 +3674,7 @@
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>121</v>
@@ -3689,44 +3683,44 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>127</v>
@@ -3740,7 +3734,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>128</v>
@@ -3749,7 +3743,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>129</v>
@@ -3763,19 +3757,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3786,16 +3780,16 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>132</v>
@@ -3809,16 +3803,16 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>134</v>
@@ -3832,7 +3826,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>135</v>
@@ -3841,7 +3835,7 @@
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>136</v>
@@ -3855,19 +3849,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3878,16 +3872,16 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>142</v>
@@ -3901,7 +3895,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>143</v>
@@ -3910,7 +3904,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>144</v>
@@ -3924,19 +3918,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3947,16 +3941,16 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>149</v>
@@ -3965,29 +3959,6 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -526,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -848,7 +860,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -871,7 +883,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -917,7 +929,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
@@ -940,7 +952,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
@@ -949,7 +961,7 @@
         <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>31</v>
@@ -1018,7 +1030,7 @@
         <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>31</v>
@@ -1041,7 +1053,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>31</v>
@@ -1064,7 +1076,7 @@
         <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>31</v>
@@ -1285,7 +1297,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>29</v>
@@ -1308,7 +1320,7 @@
         <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>29</v>
@@ -1348,801 +1360,801 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2165,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2188,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2211,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2222,22 +2234,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>20</v>
@@ -2245,19 +2257,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2268,22 +2280,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>20</v>
@@ -2291,22 +2303,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>20</v>
@@ -2314,19 +2326,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2349,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2360,22 +2372,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>20</v>
@@ -2383,19 +2395,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2406,22 +2418,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>20</v>
@@ -2429,22 +2441,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>20</v>
@@ -2452,19 +2464,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2487,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2510,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2533,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2556,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2579,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2602,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2613,19 +2625,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2648,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2671,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2694,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2717,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2740,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2763,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2786,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2809,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2832,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2855,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2878,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2901,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2912,22 +2924,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>20</v>
@@ -2935,19 +2947,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2958,22 +2970,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>20</v>
@@ -2981,22 +2993,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>20</v>
@@ -3004,19 +3016,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3039,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3062,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3085,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3096,22 +3108,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>20</v>
@@ -3119,19 +3131,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3142,22 +3154,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>20</v>
@@ -3165,22 +3177,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>20</v>
@@ -3188,19 +3200,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3211,19 +3223,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3234,19 +3246,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3257,19 +3269,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3292,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3303,19 +3315,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3326,19 +3338,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3349,19 +3361,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3372,19 +3384,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3395,19 +3407,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3418,19 +3430,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3444,22 +3456,22 @@
         <v>99</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
@@ -3467,22 +3479,22 @@
         <v>99</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129">
@@ -3490,22 +3502,22 @@
         <v>99</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130">
@@ -3513,22 +3525,22 @@
         <v>99</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131">
@@ -3536,22 +3548,22 @@
         <v>99</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132">
@@ -3559,22 +3571,22 @@
         <v>99</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133">
@@ -3582,22 +3594,22 @@
         <v>99</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134">
@@ -3605,315 +3617,315 @@
         <v>99</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3924,19 +3936,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3947,19 +3959,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3970,24 +3982,208 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
+      <c r="B157" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>20</v>
       </c>
     </row>
